--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A510507F-5D40-4F13-ACC6-A98B3B875E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D90A1408-AD41-4E0F-AE35-A57A95EABDDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商品リスト" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="納品書" sheetId="5" r:id="rId3"/>
     <sheet name="請求書" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>注文番号</t>
     <rPh sb="0" eb="4">
@@ -333,13 +332,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>194,370円</t>
-    <rPh sb="7" eb="8">
-      <t>エン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -347,11 +339,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot;円&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -518,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,90 +518,103 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +638,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -658,12 +661,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CD2884-3CCA-4B38-8088-D5900ED473A3}" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{92CD2884-3CCA-4B38-8088-D5900ED473A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AD6DE782-5E40-47EA-8B05-0C67190AA3EB}" name="注文番号"/>
-    <tableColumn id="2" xr3:uid="{0F7595FA-094A-4A81-B83B-0122E77D7E9A}" name="商品名"/>
-    <tableColumn id="3" xr3:uid="{A2FCE968-8E7A-4053-95DC-013656FB7002}" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
+    <tableColumn id="1" name="注文番号"/>
+    <tableColumn id="2" name="商品名"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -965,12 +968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028CF16F-04FC-41D0-BAEB-363FE535C993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1092,7 +1093,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{371D8466-F7A6-4165-89F7-DA91613E3631}"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1102,11 +1103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED83D11-5BE1-450B-817F-50A5C6AC6EDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1116,193 +1117,214 @@
     <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>100123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="12">
-        <v>44677</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="D4" s="24">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="19"/>
       <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="D7" s="13" t="s">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="28">
+        <f>E19</f>
+        <v>194370</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="D7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="D8" s="13" t="s">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="D8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="14">
+      <c r="A11" s="7">
         <v>1001</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="7" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="8">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
         <v>15900</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="8">
+        <f>IFERROR(C11*D11,"")</f>
         <v>31800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="14">
+      <c r="A12" s="7">
         <v>1002</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="7" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="8">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
         <v>19900</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:E14" si="0">IFERROR(C12*D12,"")</f>
         <v>39800</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
+      <c r="A13" s="7">
         <v>2001</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="7" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="8">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
         <v>9800</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="7">
         <v>8</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="14">
+      <c r="A14" s="7">
         <v>3002</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="7" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="8">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
         <v>26700</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="16">
+      <c r="D17" s="16"/>
+      <c r="E17" s="9">
+        <f>SUM(E11:E14)</f>
         <v>176700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="10">
         <v>0.1</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="27">
+        <f>ROUNDDOWN(E17*D18,0)</f>
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="18">
+      <c r="D19" s="16"/>
+      <c r="E19" s="11">
+        <f>E17+E18</f>
         <v>194370</v>
       </c>
     </row>
@@ -1324,11 +1346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB31833-DDF9-4FD3-8CC8-A87D46BCA9AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1338,189 +1360,209 @@
     <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>100123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="12">
-        <v>44677</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="D4" s="24">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="19"/>
       <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="D7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="D8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="14">
+      <c r="A11" s="7">
         <v>1001</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="7" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="8">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
         <v>15900</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="8">
+        <f>IFERROR(C11*D11,"")</f>
         <v>31800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="14">
+      <c r="A12" s="7">
         <v>1002</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="7" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="8">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
         <v>19900</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:E14" si="0">IFERROR(C12*D12,"")</f>
         <v>39800</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
+      <c r="A13" s="7">
         <v>2001</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="7" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="8">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
         <v>9800</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="7">
         <v>8</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="14">
+      <c r="A14" s="7">
         <v>3002</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="7" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="8">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
         <v>26700</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="16">
+      <c r="D17" s="21"/>
+      <c r="E17" s="9">
+        <f>SUM(E11:E14)</f>
         <v>176700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="2"/>
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="10">
         <v>0.1</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="27">
+        <f>ROUNDDOWN(E17*D18,0)</f>
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="18">
+      <c r="D19" s="21"/>
+      <c r="E19" s="11">
+        <f>E17+E18</f>
         <v>194370</v>
       </c>
     </row>
@@ -1541,11 +1583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974B056D-2A9D-4B06-B5EC-47D08FEA53AB}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1555,208 +1597,240 @@
     <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="31">
         <v>100123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="29">
-        <v>44677</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="D4" s="24">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="19"/>
       <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="33">
+        <f>E19</f>
         <v>194370</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="33"/>
+      <c r="D7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="D8" s="13" t="s">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="D8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="14">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="32">
         <v>1001</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="7" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="8">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
         <v>15900</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="32">
         <v>2</v>
       </c>
-      <c r="E11" s="15">
-        <f>C11*D11</f>
+      <c r="E11" s="8">
+        <f>IFERROR(C11*D11,"")</f>
         <v>31800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="14">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="32">
         <v>1002</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="7" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="8">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
         <v>19900</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="32">
         <v>2</v>
       </c>
-      <c r="E12" s="15">
-        <f t="shared" ref="E12:E14" si="0">C12*D12</f>
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
         <v>39800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="32">
         <v>2001</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="7" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="8">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
         <v>9800</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="32">
         <v>8</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>78400</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="32">
         <v>3002</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="7" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="8">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
         <v>26700</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="32"/>
+      <c r="B15" s="7" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="32"/>
+      <c r="B16" s="7" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="16">
+      <c r="D17" s="25"/>
+      <c r="E17" s="9">
         <f>SUM(E11:E14)</f>
         <v>176700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="10">
         <v>0.1</v>
       </c>
-      <c r="E18" s="16">
-        <f>E17/10</f>
+      <c r="E18" s="27">
+        <f>ROUNDDOWN(E17*D18,0)</f>
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
+      <c r="A19" s="26"/>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18">
+      <c r="D19" s="25"/>
+      <c r="E19" s="11">
+        <f>E17+E18</f>
         <v>194370</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:A19"/>
@@ -1764,8 +1838,12 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>